--- a/posesiones/1486002.xlsx
+++ b/posesiones/1486002.xlsx
@@ -1850,10 +1850,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>32</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2576,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18">
         <v>20</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2773,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R22">
         <v>34</v>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R26">
         <v>9</v>
@@ -3020,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R27">
         <v>1</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3217,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R31">
         <v>21</v>
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R33">
         <v>14</v>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3420,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R35">
         <v>9</v>
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R36">
         <v>29</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3576,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R38">
         <v>16</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3676,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R40">
         <v>17</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R42">
         <v>13</v>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3882,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R44">
         <v>10</v>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4076,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R48">
         <v>18</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4464,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R56">
         <v>27</v>
@@ -4517,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4567,7 +4567,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R58">
         <v>8</v>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4670,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R60">
         <v>5</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4770,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R62">
         <v>14</v>
@@ -4823,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R67">
         <v>26</v>
@@ -5067,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R68">
         <v>22</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5170,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R70">
         <v>15</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5364,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5411,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5508,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R77">
         <v>18</v>
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5611,7 +5611,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R79">
         <v>15</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5711,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R81">
         <v>13</v>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6137,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6184,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6234,7 +6234,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R92">
         <v>10</v>
@@ -6287,7 +6287,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R93">
         <v>13</v>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6387,7 +6387,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R95">
         <v>6</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6484,7 +6484,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R97">
         <v>20</v>
@@ -6537,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R98">
         <v>17</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6640,7 +6640,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R100">
         <v>21</v>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6743,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R102">
         <v>14</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6981,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7031,7 +7031,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R108">
         <v>5</v>
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7175,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7269,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7316,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7366,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R115">
         <v>0</v>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7513,7 +7513,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R118">
         <v>7</v>
@@ -7563,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7657,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7754,7 +7754,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R123">
         <v>32</v>
@@ -7804,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7898,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8086,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8180,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8227,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8274,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8324,7 +8324,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R135">
         <v>16</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8427,7 +8427,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R137">
         <v>20</v>
@@ -8480,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8530,7 +8530,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R139">
         <v>7</v>
@@ -8580,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8621,10 +8621,10 @@
         <v>1</v>
       </c>
       <c r="P141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q141">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8718,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8759,10 +8759,10 @@
         <v>1</v>
       </c>
       <c r="P144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q144">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8812,7 +8812,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R145">
         <v>14</v>
@@ -8865,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8915,7 +8915,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R147">
         <v>14</v>
@@ -8965,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9018,7 +9018,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R149">
         <v>8</v>
@@ -9068,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9115,7 +9115,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9165,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9215,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R153">
         <v>15</v>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9318,7 +9318,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R155">
         <v>11</v>
@@ -9371,7 +9371,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R156">
         <v>16</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9471,7 +9471,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R158">
         <v>18</v>
@@ -9524,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9574,7 +9574,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R160">
         <v>7</v>
@@ -9624,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9674,7 +9674,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R162">
         <v>18</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9774,7 +9774,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R164">
         <v>20</v>
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9924,7 +9924,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R167">
         <v>11</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R169">
         <v>6</v>
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10127,7 +10127,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R171">
         <v>12</v>
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10227,7 +10227,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R173">
         <v>19</v>
@@ -10277,7 +10277,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10330,7 +10330,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R175">
         <v>25</v>
@@ -10380,7 +10380,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10474,7 +10474,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10568,7 +10568,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10618,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R181">
         <v>16</v>
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10718,7 +10718,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R183">
         <v>11</v>
@@ -10771,7 +10771,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10821,7 +10821,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R185">
         <v>24</v>
@@ -10871,7 +10871,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10921,7 +10921,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R187">
         <v>20</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11071,7 +11071,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R190">
         <v>9</v>
@@ -11121,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11168,7 +11168,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11262,7 +11262,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11356,7 +11356,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11450,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11544,7 +11544,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11641,7 +11641,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R202">
         <v>23</v>
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11741,7 +11741,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11841,7 +11841,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R206">
         <v>19</v>
@@ -11894,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11944,7 +11944,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R208">
         <v>17</v>
@@ -11994,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12144,7 +12144,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R212">
         <v>27</v>
@@ -12194,7 +12194,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12332,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12379,7 +12379,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12426,7 +12426,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12473,7 +12473,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12520,7 +12520,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12570,7 +12570,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R221">
         <v>24</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12673,7 +12673,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R223">
         <v>4</v>
@@ -12726,7 +12726,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R224">
         <v>9</v>
@@ -12779,7 +12779,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R225">
         <v>19</v>
@@ -12832,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12882,7 +12882,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R227">
         <v>13</v>
@@ -12929,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12976,7 +12976,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13023,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13070,7 +13070,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13117,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13167,7 +13167,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R233">
         <v>11</v>
@@ -13220,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13270,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R235">
         <v>7</v>
@@ -13323,7 +13323,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R236">
         <v>23</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13420,7 +13420,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13467,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13514,7 +13514,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13561,7 +13561,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13608,7 +13608,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13658,7 +13658,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R243">
         <v>0</v>
@@ -13708,7 +13708,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13755,7 +13755,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13805,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R246">
         <v>10</v>
@@ -13858,7 +13858,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R247">
         <v>17</v>
@@ -13908,7 +13908,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13958,7 +13958,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R249">
         <v>17</v>
@@ -14011,7 +14011,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R250">
         <v>20</v>
@@ -14061,7 +14061,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14108,7 +14108,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14155,7 +14155,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14202,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14249,7 +14249,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14296,7 +14296,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14346,7 +14346,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R257">
         <v>22</v>
@@ -14399,7 +14399,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14449,7 +14449,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R259">
         <v>19</v>
@@ -14505,7 +14505,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R260">
         <v>0</v>
@@ -14549,10 +14549,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q261">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14599,7 +14599,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14646,7 +14646,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14693,7 +14693,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14740,7 +14740,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14834,7 +14834,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14881,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14928,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14969,10 +14969,10 @@
         <v>1</v>
       </c>
       <c r="P270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q270">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15019,7 +15019,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15066,7 +15066,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15116,7 +15116,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R273">
         <v>21</v>
@@ -15166,7 +15166,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15216,7 +15216,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R275">
         <v>9</v>
@@ -15269,7 +15269,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15319,7 +15319,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R277">
         <v>13</v>
@@ -15369,7 +15369,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15419,7 +15419,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15469,7 +15469,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R280">
         <v>21</v>
@@ -15522,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15572,7 +15572,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R282">
         <v>4</v>
@@ -15625,7 +15625,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15672,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15722,7 +15722,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15769,7 +15769,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15819,7 +15819,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15866,7 +15866,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15913,7 +15913,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15960,7 +15960,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16010,7 +16010,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R291">
         <v>20</v>
@@ -16063,7 +16063,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R292">
         <v>14</v>
@@ -16116,7 +16116,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R293">
         <v>13</v>
@@ -16169,7 +16169,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16219,7 +16219,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R295">
         <v>10</v>
@@ -16272,7 +16272,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16322,7 +16322,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R297">
         <v>20</v>
@@ -16375,7 +16375,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R298">
         <v>20</v>
@@ -16428,7 +16428,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16475,7 +16475,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16522,7 +16522,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16569,7 +16569,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16616,7 +16616,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16666,7 +16666,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R304">
         <v>15</v>
@@ -16716,7 +16716,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16807,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16854,7 +16854,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16904,7 +16904,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R309">
         <v>29</v>
@@ -16957,7 +16957,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R310">
         <v>20</v>
@@ -17007,7 +17007,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17054,7 +17054,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17101,7 +17101,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17148,7 +17148,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17198,7 +17198,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R315">
         <v>2</v>
@@ -17251,7 +17251,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R316">
         <v>16</v>
@@ -17301,7 +17301,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17348,7 +17348,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17395,7 +17395,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17442,7 +17442,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17489,7 +17489,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17536,7 +17536,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17586,7 +17586,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R323">
         <v>24</v>
@@ -17639,7 +17639,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17689,7 +17689,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R325">
         <v>18</v>
@@ -17742,7 +17742,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17792,7 +17792,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R327">
         <v>11</v>
@@ -17842,7 +17842,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17892,7 +17892,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17939,7 +17939,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17986,7 +17986,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18033,7 +18033,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18083,7 +18083,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R333">
         <v>29</v>
@@ -18133,7 +18133,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18180,7 +18180,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18227,7 +18227,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18277,7 +18277,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R337">
         <v>0</v>
@@ -18330,7 +18330,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R338">
         <v>8</v>
@@ -18380,7 +18380,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18427,7 +18427,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18474,7 +18474,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18521,7 +18521,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18568,7 +18568,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18615,7 +18615,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18662,7 +18662,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18712,7 +18712,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R346">
         <v>20</v>
@@ -18762,7 +18762,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18812,7 +18812,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R348">
         <v>18</v>
@@ -18862,7 +18862,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18912,7 +18912,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R350">
         <v>6</v>
@@ -18962,7 +18962,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19012,7 +19012,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R352">
         <v>12</v>
@@ -19065,7 +19065,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19115,7 +19115,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R354">
         <v>11</v>
@@ -19168,7 +19168,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19218,7 +19218,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R356">
         <v>15</v>
@@ -19268,7 +19268,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19318,7 +19318,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R358">
         <v>13</v>
@@ -19368,7 +19368,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19418,7 +19418,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19468,7 +19468,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R361">
         <v>13</v>
@@ -19521,7 +19521,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R362">
         <v>15</v>
@@ -19571,7 +19571,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19618,7 +19618,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19665,7 +19665,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19712,7 +19712,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19762,7 +19762,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R367">
         <v>21</v>
@@ -19812,7 +19812,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19859,7 +19859,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19906,7 +19906,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19956,7 +19956,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R371">
         <v>15</v>
@@ -20009,7 +20009,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R372">
         <v>23</v>
@@ -20062,7 +20062,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20112,7 +20112,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R374">
         <v>6</v>
@@ -20162,7 +20162,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20209,7 +20209,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20256,7 +20256,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20303,7 +20303,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20350,7 +20350,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20444,7 +20444,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20491,7 +20491,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20538,7 +20538,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20585,7 +20585,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20635,7 +20635,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R385">
         <v>8</v>
@@ -20685,7 +20685,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20732,7 +20732,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20779,7 +20779,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20829,7 +20829,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R389">
         <v>12</v>
@@ -20882,7 +20882,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20932,7 +20932,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R391">
         <v>15</v>
@@ -20982,7 +20982,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21029,7 +21029,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21076,7 +21076,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21126,7 +21126,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R395">
         <v>22</v>
@@ -21176,7 +21176,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21223,7 +21223,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21270,7 +21270,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21317,7 +21317,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21367,7 +21367,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R400">
         <v>13</v>
@@ -21423,7 +21423,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R401">
         <v>0</v>
@@ -21467,10 +21467,10 @@
         <v>1</v>
       </c>
       <c r="P402" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q402">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21517,7 +21517,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21564,7 +21564,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21611,7 +21611,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21658,7 +21658,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21699,10 +21699,10 @@
         <v>1</v>
       </c>
       <c r="P407" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q407">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21752,7 +21752,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R408">
         <v>17</v>
@@ -21802,7 +21802,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21852,7 +21852,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R410">
         <v>18</v>
@@ -21905,7 +21905,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21955,7 +21955,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R412">
         <v>20</v>
@@ -22005,7 +22005,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22052,7 +22052,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22099,7 +22099,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22146,7 +22146,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22196,7 +22196,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R417">
         <v>17</v>
@@ -22249,7 +22249,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22299,7 +22299,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R419">
         <v>11</v>
@@ -22352,7 +22352,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22399,7 +22399,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22446,7 +22446,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22493,7 +22493,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22543,7 +22543,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R424">
         <v>9</v>
@@ -22593,7 +22593,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22640,7 +22640,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22690,7 +22690,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R427">
         <v>16</v>
@@ -22743,7 +22743,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22793,7 +22793,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R429">
         <v>4</v>
@@ -22843,7 +22843,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22893,7 +22893,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R431">
         <v>18</v>
@@ -22943,7 +22943,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22990,7 +22990,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23040,7 +23040,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R434">
         <v>0</v>
@@ -23090,7 +23090,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23137,7 +23137,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23184,7 +23184,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23231,7 +23231,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23325,7 +23325,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23375,7 +23375,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R441">
         <v>13</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23478,7 +23478,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R443">
         <v>7</v>
@@ -23528,7 +23528,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23578,7 +23578,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R445">
         <v>4</v>
@@ -23628,7 +23628,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23675,7 +23675,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23725,7 +23725,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23775,7 +23775,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R449">
         <v>26</v>
@@ -23825,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23872,7 +23872,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23919,7 +23919,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23966,7 +23966,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24060,7 +24060,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24157,7 +24157,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R457">
         <v>8</v>
@@ -24210,7 +24210,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24260,7 +24260,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R459">
         <v>17</v>
@@ -24313,7 +24313,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R460">
         <v>20</v>
@@ -24363,7 +24363,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24410,7 +24410,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24504,7 +24504,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24554,7 +24554,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R465">
         <v>20</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24701,7 +24701,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24751,7 +24751,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R469">
         <v>27</v>
@@ -24798,7 +24798,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24845,7 +24845,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24942,7 +24942,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R473">
         <v>17</v>
@@ -24995,7 +24995,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R474">
         <v>15</v>
@@ -25045,7 +25045,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25095,7 +25095,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R476">
         <v>19</v>
@@ -25145,7 +25145,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25195,7 +25195,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R478">
         <v>17</v>
@@ -25248,7 +25248,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25298,7 +25298,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R480">
         <v>22</v>
@@ -25351,7 +25351,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25401,7 +25401,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R482">
         <v>14</v>
@@ -25451,7 +25451,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25501,7 +25501,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R484">
         <v>22</v>
@@ -25548,7 +25548,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25595,7 +25595,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25692,7 +25692,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25742,7 +25742,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25792,7 +25792,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R490">
         <v>30</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25892,7 +25892,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25942,7 +25942,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R493">
         <v>22</v>
@@ -25995,7 +25995,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R494">
         <v>8</v>
@@ -26048,7 +26048,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R495">
         <v>14</v>
@@ -26101,7 +26101,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R496">
         <v>18</v>
@@ -26154,7 +26154,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26201,7 +26201,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26251,7 +26251,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26301,7 +26301,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R500">
         <v>26</v>
@@ -26354,7 +26354,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26404,7 +26404,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R502">
         <v>7</v>
@@ -26454,7 +26454,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26504,7 +26504,7 @@
         <v>1</v>
       </c>
       <c r="Q504">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R504">
         <v>13</v>
@@ -26554,7 +26554,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26604,7 +26604,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26654,7 +26654,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R507">
         <v>21</v>
@@ -26707,7 +26707,7 @@
         <v>1</v>
       </c>
       <c r="Q508">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R508">
         <v>27</v>
@@ -26760,7 +26760,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R509">
         <v>0</v>
@@ -26804,10 +26804,10 @@
         <v>1</v>
       </c>
       <c r="P510" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q510">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26848,7 +26848,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
